--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Edil3</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Edil3</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05352566666666667</v>
+        <v>0.035377</v>
       </c>
       <c r="H2">
-        <v>0.160577</v>
+        <v>0.106131</v>
       </c>
       <c r="I2">
-        <v>0.01167583713509828</v>
+        <v>0.009485813934916381</v>
       </c>
       <c r="J2">
-        <v>0.01322369435813362</v>
+        <v>0.0109892442478118</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>0.255214339566</v>
+        <v>0.2374676408066666</v>
       </c>
       <c r="R2">
-        <v>2.296929056094</v>
+        <v>2.137208767259999</v>
       </c>
       <c r="S2">
-        <v>0.006087313692210175</v>
+        <v>0.006004982781332458</v>
       </c>
       <c r="T2">
-        <v>0.007089847605536172</v>
+        <v>0.007049054989060208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05352566666666667</v>
+        <v>0.035377</v>
       </c>
       <c r="H3">
-        <v>0.160577</v>
+        <v>0.106131</v>
       </c>
       <c r="I3">
-        <v>0.01167583713509828</v>
+        <v>0.009485813934916381</v>
       </c>
       <c r="J3">
-        <v>0.01322369435813362</v>
+        <v>0.0109892442478118</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>0.1650117085346667</v>
+        <v>0.109062055204</v>
       </c>
       <c r="R3">
-        <v>1.485105376812</v>
+        <v>0.9815584968359999</v>
       </c>
       <c r="S3">
-        <v>0.00393582129611611</v>
+        <v>0.002757915821170545</v>
       </c>
       <c r="T3">
-        <v>0.004584020900351462</v>
+        <v>0.003237428147015698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05352566666666667</v>
+        <v>0.035377</v>
       </c>
       <c r="H4">
-        <v>0.160577</v>
+        <v>0.106131</v>
       </c>
       <c r="I4">
-        <v>0.01167583713509828</v>
+        <v>0.009485813934916381</v>
       </c>
       <c r="J4">
-        <v>0.01322369435813362</v>
+        <v>0.0109892442478118</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>0.009706968859444444</v>
+        <v>0.008826903477666665</v>
       </c>
       <c r="R4">
-        <v>0.087362719735</v>
+        <v>0.07944213129899999</v>
       </c>
       <c r="S4">
-        <v>0.0002315283872702344</v>
+        <v>0.0002232110582133002</v>
       </c>
       <c r="T4">
-        <v>0.0002696593382729925</v>
+        <v>0.0002620202389927156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05352566666666667</v>
+        <v>0.035377</v>
       </c>
       <c r="H5">
-        <v>0.160577</v>
+        <v>0.106131</v>
       </c>
       <c r="I5">
-        <v>0.01167583713509828</v>
+        <v>0.009485813934916381</v>
       </c>
       <c r="J5">
-        <v>0.01322369435813362</v>
+        <v>0.0109892442478118</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>0.04050367485166666</v>
+        <v>0.0147397032305</v>
       </c>
       <c r="R5">
-        <v>0.24302204911</v>
+        <v>0.08843821938299999</v>
       </c>
       <c r="S5">
-        <v>0.0009660843310319476</v>
+        <v>0.0003727314753304192</v>
       </c>
       <c r="T5">
-        <v>0.000750127344335582</v>
+        <v>0.0002916916124972538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05352566666666667</v>
+        <v>0.035377</v>
       </c>
       <c r="H6">
-        <v>0.160577</v>
+        <v>0.106131</v>
       </c>
       <c r="I6">
-        <v>0.01167583713509828</v>
+        <v>0.009485813934916381</v>
       </c>
       <c r="J6">
-        <v>0.01322369435813362</v>
+        <v>0.0109892442478118</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>0.01907990187511111</v>
+        <v>0.005021151948666667</v>
       </c>
       <c r="R6">
-        <v>0.171719116876</v>
+        <v>0.04519036753799999</v>
       </c>
       <c r="S6">
-        <v>0.000455089428469808</v>
+        <v>0.0001269727988696588</v>
       </c>
       <c r="T6">
-        <v>0.0005300391696374061</v>
+        <v>0.0001490492602459227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.163411333333334</v>
+        <v>2.163411333333333</v>
       </c>
       <c r="H7">
-        <v>6.490234000000001</v>
+        <v>6.490234</v>
       </c>
       <c r="I7">
-        <v>0.4719163712902685</v>
+        <v>0.5800864226104351</v>
       </c>
       <c r="J7">
-        <v>0.5344779808364024</v>
+        <v>0.6720257667547896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>10.315305329772</v>
+        <v>14.52186972951555</v>
       </c>
       <c r="R7">
-        <v>92.83774796794802</v>
+        <v>130.69682756564</v>
       </c>
       <c r="S7">
-        <v>0.2460382887577176</v>
+        <v>0.3672229924981248</v>
       </c>
       <c r="T7">
-        <v>0.2865589093348952</v>
+        <v>0.4310711889821843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.163411333333334</v>
+        <v>2.163411333333333</v>
       </c>
       <c r="H8">
-        <v>6.490234000000001</v>
+        <v>6.490234</v>
       </c>
       <c r="I8">
-        <v>0.4719163712902685</v>
+        <v>0.5800864226104351</v>
       </c>
       <c r="J8">
-        <v>0.5344779808364024</v>
+        <v>0.6720257667547896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
-        <v>6.669476955789335</v>
+        <v>6.669476955789334</v>
       </c>
       <c r="R8">
-        <v>60.02529260210401</v>
+        <v>60.025292602104</v>
       </c>
       <c r="S8">
-        <v>0.15907882943371</v>
+        <v>0.1686549550244414</v>
       </c>
       <c r="T8">
-        <v>0.1852778934976471</v>
+        <v>0.1979785946831584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.163411333333334</v>
+        <v>2.163411333333333</v>
       </c>
       <c r="H9">
-        <v>6.490234000000001</v>
+        <v>6.490234</v>
       </c>
       <c r="I9">
-        <v>0.4719163712902685</v>
+        <v>0.5800864226104351</v>
       </c>
       <c r="J9">
-        <v>0.5344779808364024</v>
+        <v>0.6720257667547896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>0.3923382509855556</v>
+        <v>0.5397920406428889</v>
       </c>
       <c r="R9">
-        <v>3.53104425887</v>
+        <v>4.858128365786</v>
       </c>
       <c r="S9">
-        <v>0.009357961669644112</v>
+        <v>0.01365003626830935</v>
       </c>
       <c r="T9">
-        <v>0.01089914623935481</v>
+        <v>0.01602333591315119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.163411333333334</v>
+        <v>2.163411333333333</v>
       </c>
       <c r="H10">
-        <v>6.490234000000001</v>
+        <v>6.490234</v>
       </c>
       <c r="I10">
-        <v>0.4719163712902685</v>
+        <v>0.5800864226104351</v>
       </c>
       <c r="J10">
-        <v>0.5344779808364024</v>
+        <v>0.6720257667547896</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>1.637085807103334</v>
+        <v>0.9013777600936668</v>
       </c>
       <c r="R10">
-        <v>9.822514842620002</v>
+        <v>5.408266560562001</v>
       </c>
       <c r="S10">
-        <v>0.03904739391152409</v>
+        <v>0.02279366531983726</v>
       </c>
       <c r="T10">
-        <v>0.03031880029229904</v>
+        <v>0.01783783080291811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.163411333333334</v>
+        <v>2.163411333333333</v>
       </c>
       <c r="H11">
-        <v>6.490234000000001</v>
+        <v>6.490234</v>
       </c>
       <c r="I11">
-        <v>0.4719163712902685</v>
+        <v>0.5800864226104351</v>
       </c>
       <c r="J11">
-        <v>0.5344779808364024</v>
+        <v>0.6720257667547896</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>0.771175372976889</v>
+        <v>0.3070587396368889</v>
       </c>
       <c r="R11">
-        <v>6.940578356792001</v>
+        <v>2.763528656732</v>
       </c>
       <c r="S11">
-        <v>0.01839389751767262</v>
+        <v>0.007764773499722238</v>
       </c>
       <c r="T11">
-        <v>0.02142323147220624</v>
+        <v>0.009114816373377582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1644663333333334</v>
+        <v>1.5306755</v>
       </c>
       <c r="H12">
-        <v>0.493399</v>
+        <v>3.061351</v>
       </c>
       <c r="I12">
-        <v>0.0358759122827077</v>
+        <v>0.4104277634546485</v>
       </c>
       <c r="J12">
-        <v>0.04063195583806378</v>
+        <v>0.3169849889973986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>0.7841876478420001</v>
+        <v>10.27463888474333</v>
       </c>
       <c r="R12">
-        <v>7.057688830578001</v>
+        <v>61.64783330845999</v>
       </c>
       <c r="S12">
-        <v>0.01870426330310573</v>
+        <v>0.2598207881196102</v>
       </c>
       <c r="T12">
-        <v>0.02178471212392772</v>
+        <v>0.2033301442539358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1644663333333334</v>
+        <v>1.5306755</v>
       </c>
       <c r="H13">
-        <v>0.493399</v>
+        <v>3.061351</v>
       </c>
       <c r="I13">
-        <v>0.0358759122827077</v>
+        <v>0.4104277634546485</v>
       </c>
       <c r="J13">
-        <v>0.04063195583806378</v>
+        <v>0.3169849889973986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.5070253646493335</v>
+        <v>4.718846026526001</v>
       </c>
       <c r="R13">
-        <v>4.563228281844</v>
+        <v>28.313076159156</v>
       </c>
       <c r="S13">
-        <v>0.01209345231061978</v>
+        <v>0.11932821263895</v>
       </c>
       <c r="T13">
-        <v>0.01408515122472403</v>
+        <v>0.09338368521256427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1644663333333334</v>
+        <v>1.5306755</v>
       </c>
       <c r="H14">
-        <v>0.493399</v>
+        <v>3.061351</v>
       </c>
       <c r="I14">
-        <v>0.0358759122827077</v>
+        <v>0.4104277634546485</v>
       </c>
       <c r="J14">
-        <v>0.04063195583806378</v>
+        <v>0.3169849889973986</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.02982624366055556</v>
+        <v>0.3819183337798334</v>
       </c>
       <c r="R14">
-        <v>0.268436192945</v>
+        <v>2.291510002679</v>
       </c>
       <c r="S14">
-        <v>0.0007114086995693428</v>
+        <v>0.0096577917329387</v>
       </c>
       <c r="T14">
-        <v>0.0008285722603147165</v>
+        <v>0.007557979484416324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1644663333333334</v>
+        <v>1.5306755</v>
       </c>
       <c r="H15">
-        <v>0.493399</v>
+        <v>3.061351</v>
       </c>
       <c r="I15">
-        <v>0.0358759122827077</v>
+        <v>0.4104277634546485</v>
       </c>
       <c r="J15">
-        <v>0.04063195583806378</v>
+        <v>0.3169849889973986</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.1244541414283334</v>
+        <v>0.63775058971075</v>
       </c>
       <c r="R15">
-        <v>0.7467248485700001</v>
+        <v>2.551002358843</v>
       </c>
       <c r="S15">
-        <v>0.002968451539428635</v>
+        <v>0.01612717125157948</v>
       </c>
       <c r="T15">
-        <v>0.002304888505625537</v>
+        <v>0.008413850897570746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,681 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.5306755</v>
+      </c>
+      <c r="H16">
+        <v>3.061351</v>
+      </c>
+      <c r="I16">
+        <v>0.4104277634546485</v>
+      </c>
+      <c r="J16">
+        <v>0.3169849889973986</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.1644663333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.493399</v>
-      </c>
-      <c r="I16">
-        <v>0.0358759122827077</v>
-      </c>
-      <c r="J16">
-        <v>0.04063195583806378</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.0586261077568889</v>
+        <v>0.2172528555163334</v>
       </c>
       <c r="R16">
-        <v>0.5276349698120001</v>
+        <v>1.303517133098</v>
       </c>
       <c r="S16">
-        <v>0.001398336429984212</v>
+        <v>0.00549379971157007</v>
       </c>
       <c r="T16">
-        <v>0.001628631723471771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.6098055</v>
-      </c>
-      <c r="H17">
-        <v>3.219611</v>
-      </c>
-      <c r="I17">
-        <v>0.3511553990394412</v>
-      </c>
-      <c r="J17">
-        <v>0.2651385429799095</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.768074</v>
-      </c>
-      <c r="N17">
-        <v>14.304222</v>
-      </c>
-      <c r="O17">
-        <v>0.5213599352042467</v>
-      </c>
-      <c r="P17">
-        <v>0.5361472681932758</v>
-      </c>
-      <c r="Q17">
-        <v>7.675671749607002</v>
-      </c>
-      <c r="R17">
-        <v>46.05403049764201</v>
-      </c>
-      <c r="S17">
-        <v>0.1830783560898245</v>
-      </c>
-      <c r="T17">
-        <v>0.1421533055114239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.6098055</v>
-      </c>
-      <c r="H18">
-        <v>3.219611</v>
-      </c>
-      <c r="I18">
-        <v>0.3511553990394412</v>
-      </c>
-      <c r="J18">
-        <v>0.2651385429799095</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.082852</v>
-      </c>
-      <c r="N18">
-        <v>9.248556000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.3370911439219028</v>
-      </c>
-      <c r="P18">
-        <v>0.3466520607784562</v>
-      </c>
-      <c r="Q18">
-        <v>4.962792105286002</v>
-      </c>
-      <c r="R18">
-        <v>29.77675263171601</v>
-      </c>
-      <c r="S18">
-        <v>0.1183713751565575</v>
-      </c>
-      <c r="T18">
-        <v>0.0919108223157829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.6098055</v>
-      </c>
-      <c r="H19">
-        <v>3.219611</v>
-      </c>
-      <c r="I19">
-        <v>0.3511553990394412</v>
-      </c>
-      <c r="J19">
-        <v>0.2651385429799095</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.1813516666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.544055</v>
-      </c>
-      <c r="O19">
-        <v>0.01982970339439268</v>
-      </c>
-      <c r="P19">
-        <v>0.02039213331538707</v>
-      </c>
-      <c r="Q19">
-        <v>0.2919409104341667</v>
-      </c>
-      <c r="R19">
-        <v>1.751645462605</v>
-      </c>
-      <c r="S19">
-        <v>0.006963307408291723</v>
-      </c>
-      <c r="T19">
-        <v>0.005406740515493799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.6098055</v>
-      </c>
-      <c r="H20">
-        <v>3.219611</v>
-      </c>
-      <c r="I20">
-        <v>0.3511553990394412</v>
-      </c>
-      <c r="J20">
-        <v>0.2651385429799095</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.756715</v>
-      </c>
-      <c r="N20">
-        <v>1.51343</v>
-      </c>
-      <c r="O20">
-        <v>0.08274218969086503</v>
-      </c>
-      <c r="P20">
-        <v>0.05672600439938288</v>
-      </c>
-      <c r="Q20">
-        <v>1.2181639689325</v>
-      </c>
-      <c r="R20">
-        <v>4.87265587573</v>
-      </c>
-      <c r="S20">
-        <v>0.02905536663829285</v>
-      </c>
-      <c r="T20">
-        <v>0.01504025015552431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.6098055</v>
-      </c>
-      <c r="H21">
-        <v>3.219611</v>
-      </c>
-      <c r="I21">
-        <v>0.3511553990394412</v>
-      </c>
-      <c r="J21">
-        <v>0.2651385429799095</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.3564626666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.069388</v>
-      </c>
-      <c r="O21">
-        <v>0.0389770277885927</v>
-      </c>
-      <c r="P21">
-        <v>0.04008253331349799</v>
-      </c>
-      <c r="Q21">
-        <v>0.5738355613446667</v>
-      </c>
-      <c r="R21">
-        <v>3.443013368068001</v>
-      </c>
-      <c r="S21">
-        <v>0.01368699374647466</v>
-      </c>
-      <c r="T21">
-        <v>0.01062742448168454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.5931019999999999</v>
-      </c>
-      <c r="H22">
-        <v>1.779306</v>
-      </c>
-      <c r="I22">
-        <v>0.1293764802524843</v>
-      </c>
-      <c r="J22">
-        <v>0.1465278259874907</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.768074</v>
-      </c>
-      <c r="N22">
-        <v>14.304222</v>
-      </c>
-      <c r="O22">
-        <v>0.5213599352042467</v>
-      </c>
-      <c r="P22">
-        <v>0.5361472681932758</v>
-      </c>
-      <c r="Q22">
-        <v>2.827954225548</v>
-      </c>
-      <c r="R22">
-        <v>25.451588029932</v>
-      </c>
-      <c r="S22">
-        <v>0.06745171336138872</v>
-      </c>
-      <c r="T22">
-        <v>0.07856049361749282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.5931019999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.779306</v>
-      </c>
-      <c r="I23">
-        <v>0.1293764802524843</v>
-      </c>
-      <c r="J23">
-        <v>0.1465278259874907</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.082852</v>
-      </c>
-      <c r="N23">
-        <v>9.248556000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.3370911439219028</v>
-      </c>
-      <c r="P23">
-        <v>0.3466520607784562</v>
-      </c>
-      <c r="Q23">
-        <v>1.828445686904</v>
-      </c>
-      <c r="R23">
-        <v>16.456011182136</v>
-      </c>
-      <c r="S23">
-        <v>0.0436116657248994</v>
-      </c>
-      <c r="T23">
-        <v>0.05079417283995067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.5931019999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.779306</v>
-      </c>
-      <c r="I24">
-        <v>0.1293764802524843</v>
-      </c>
-      <c r="J24">
-        <v>0.1465278259874907</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1813516666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.544055</v>
-      </c>
-      <c r="O24">
-        <v>0.01982970339439268</v>
-      </c>
-      <c r="P24">
-        <v>0.02039213331538707</v>
-      </c>
-      <c r="Q24">
-        <v>0.1075600362033333</v>
-      </c>
-      <c r="R24">
-        <v>0.9680403258299999</v>
-      </c>
-      <c r="S24">
-        <v>0.002565497229617265</v>
-      </c>
-      <c r="T24">
-        <v>0.002988014961950748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.5931019999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.779306</v>
-      </c>
-      <c r="I25">
-        <v>0.1293764802524843</v>
-      </c>
-      <c r="J25">
-        <v>0.1465278259874907</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.756715</v>
-      </c>
-      <c r="N25">
-        <v>1.51343</v>
-      </c>
-      <c r="O25">
-        <v>0.08274218969086503</v>
-      </c>
-      <c r="P25">
-        <v>0.05672600439938288</v>
-      </c>
-      <c r="Q25">
-        <v>0.44880917993</v>
-      </c>
-      <c r="R25">
-        <v>2.69285507958</v>
-      </c>
-      <c r="S25">
-        <v>0.01070489327058751</v>
-      </c>
-      <c r="T25">
-        <v>0.008311938101598405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.5931019999999999</v>
-      </c>
-      <c r="H26">
-        <v>1.779306</v>
-      </c>
-      <c r="I26">
-        <v>0.1293764802524843</v>
-      </c>
-      <c r="J26">
-        <v>0.1465278259874907</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3564626666666666</v>
-      </c>
-      <c r="N26">
-        <v>1.069388</v>
-      </c>
-      <c r="O26">
-        <v>0.0389770277885927</v>
-      </c>
-      <c r="P26">
-        <v>0.04008253331349799</v>
-      </c>
-      <c r="Q26">
-        <v>0.2114187205253333</v>
-      </c>
-      <c r="R26">
-        <v>1.902768484728</v>
-      </c>
-      <c r="S26">
-        <v>0.005042710665991395</v>
-      </c>
-      <c r="T26">
-        <v>0.005873206466498031</v>
+        <v>0.004299329148911401</v>
       </c>
     </row>
   </sheetData>
